--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.10858766666667</v>
+        <v>19.51877066666666</v>
       </c>
       <c r="N2">
-        <v>60.325763</v>
+        <v>58.556312</v>
       </c>
       <c r="O2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349741</v>
       </c>
       <c r="P2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349743</v>
       </c>
       <c r="Q2">
-        <v>0.8760105131106667</v>
+        <v>0.8503157253226665</v>
       </c>
       <c r="R2">
-        <v>7.884094617996</v>
+        <v>7.652841527904</v>
       </c>
       <c r="S2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349741</v>
       </c>
       <c r="T2">
-        <v>0.9234633461941997</v>
+        <v>0.9213325069349743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.638447</v>
       </c>
       <c r="O3">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="P3">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="Q3">
         <v>0.009271101702666667</v>
@@ -632,10 +632,10 @@
         <v>0.083439915324</v>
       </c>
       <c r="S3">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
       <c r="T3">
-        <v>0.009773310334883756</v>
+        <v>0.01004540680524951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>1.453784333333333</v>
       </c>
       <c r="N4">
-        <v>4.361352999999999</v>
+        <v>4.361353</v>
       </c>
       <c r="O4">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977624</v>
       </c>
       <c r="P4">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977625</v>
       </c>
       <c r="Q4">
         <v>0.06333266069733333</v>
       </c>
       <c r="R4">
-        <v>0.569993946276</v>
+        <v>0.5699939462760001</v>
       </c>
       <c r="S4">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977624</v>
       </c>
       <c r="T4">
-        <v>0.06676334347091657</v>
+        <v>0.06862208625977625</v>
       </c>
     </row>
   </sheetData>
